--- a/test.xlsx
+++ b/test.xlsx
@@ -14,13 +14,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font/>
+    <font>
+      <name val="Serif"/>
+    </font>
     <font>
       <name val="Arial"/>
       <color theme="1"/>
@@ -51,11 +54,11 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -272,32 +275,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="33.86" customWidth="1" style="5" min="1" max="3"/>
+    <col width="58.29" customWidth="1" style="5" min="1" max="1"/>
+    <col width="64" customWidth="1" style="5" min="2" max="2"/>
+    <col width="60.71" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Жило-было существо любило общаться со зверями.</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Том общался с дикими животными они были против.</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>От Кошмара звери мутировали или умирали в муках.</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="4" t="n"/>
-      <c r="C2" s="4" t="n"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>тест</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>тест</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>тест</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="n"/>
@@ -5300,7 +5317,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5311,22 +5328,44 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>аЪйЗЦУЯ,ХЛьдНвОКзОЩФеРР-ИЧПшОНелЪОеЛХРК,ЛнФЯМ?ф</t>
+          <t>2+3</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ФФишмУбЕШЭоФХДЫФЯФрЧаЛРЗИиРЮЫЕФщЮееЫИиЙЯБнеЩМЯх</t>
+          <t>1+3</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>ШРСлм?оЕУокрдвПФЖРйНыБКЗЦпХЦЯВпдШб,МгиЙЯОЪзШКб.</t>
+          <t>1+2</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>ж?ОхФфФе ИзСАБяьГьЦяЭсшйцФэУБнСбЕЗвь НсЬрЧНЕф!ф</t>
+          <t>3 в 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>жФкн</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>жФкн</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>жФкн</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>ТщХЩ</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -284,17 +284,17 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Жило-было существо любило общаться со зверями.</t>
+          <t>Жило-было существо любило общаться со зверями</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Том общался с дикими животными они были против.</t>
+          <t>Том общался с дикими животными они были против</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>От Кошмара звери мутировали или умирали в муках.</t>
+          <t>От Кошмара звери мутировали или умирали в муках</t>
         </is>
       </c>
     </row>
@@ -5327,44 +5327,44 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">  киьщгаысэеугфрифяъжццдоэхщфужм фжсыцрюсоъгтвфя</t>
+          <t>ббнлюыжвэу ихжцтлцаьйшшжрячьцхйпбцйуэштаусьжфд</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>фъйшмщелю пъык.ъаъсэдсцнойц..лъъвйж.ойпазойят.уя</t>
+          <t>цьмъпыин бтьэмвьгьфязушпрмшввньэемйврмсгйсмафб</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>шцчммвтлщпосигхъмцкуьзрньрыьгириюеютзйпаф люрбяю</t>
+          <t>ъшщппдхнытсфлжчьошнхяйтпюуэюжкул иафкмсгцбо тг</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>джхцъъюлзпмшкигакаэгвчюпьыбълушжпсдазфч цючпъбтэ</t>
+          <t>йлъыяювпмфтэпниепебииыбу  жярчэмфцкемщыдъвьфюе</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>вкавию</t>
+          <t>емгел</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>вкавъю</t>
+          <t>емгеэ</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>вкавмю</t>
+          <t>емгеп</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>фпсфжь</t>
+          <t>щуцщм</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Мысли" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Шифры" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Мысли" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Шифры" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
